--- a/experiment/quadratic/ex9.2.5/Experimentos_Generador/ex9.2.5(Quadratic)__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/quadratic/ex9.2.5/Experimentos_Generador/ex9.2.5(Quadratic)__M_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,58 +66,55 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-14 + x + 2y</t>
-  </si>
-  <si>
-    <t>-5.084293056239593</t>
+    <t>-12.85 + x + 2y</t>
+  </si>
+  <si>
+    <t>-1.1500000000000004</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.5416861885182938</t>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>8.7</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0.39964678137754395</t>
-  </si>
-  <si>
-    <t>-2 + x - 2y</t>
-  </si>
-  <si>
-    <t>-7.61098921201671</t>
+    <t>3.3499999999999996 + x - 2y</t>
+  </si>
+  <si>
+    <t>-5.35</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9614613706904978</t>
-  </si>
-  <si>
-    <t>0.6598825370621678</t>
-  </si>
-  <si>
-    <t>0.17711753555892662</t>
-  </si>
-  <si>
-    <t>-1 - 2x + y</t>
-  </si>
-  <si>
-    <t>-0.6730436927994186</t>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>6.6000000000000005</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>-7.45 - 2x + y</t>
+  </si>
+  <si>
+    <t>-6.45</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.8934192024608484</t>
-  </si>
-  <si>
-    <t>0.4654812965787164</t>
-  </si>
-  <si>
-    <t>0.4684684506632051</t>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.6</t>
   </si>
   <si>
     <t>x</t>
@@ -126,25 +123,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.6523588658718489</t>
-  </si>
-  <si>
-    <t>3.631674038944279</t>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>4.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>2.6827830839950013</t>
+    <t>1.7800000000000002</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>2.966362324351567</t>
-  </si>
-  <si>
-    <t>-2.4090643003429393</t>
+    <t>-18.8</t>
+  </si>
+  <si>
+    <t>-8.299999999999997</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -635,10 +632,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -656,18 +653,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -685,12 +682,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -708,17 +705,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +733,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">
